--- a/SupplimentaryTables.xlsx
+++ b/SupplimentaryTables.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="366">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -497,7 +498,7 @@
     <t xml:space="preserve">1-Deoxy-1-morpholino-D-fructose</t>
   </si>
   <si>
-    <t xml:space="preserve">N1(CCOCC1)CC(=O)[C@@H](O)[C@H](O)[C@H](O)CO</t>
+    <t xml:space="preserve">O[C@H](CO1)[C@@H](O)[C@H](O)C1(O)CN2CCOCC2</t>
   </si>
   <si>
     <t xml:space="preserve">D-Fructose 6-phosphate dipotassium salt</t>
@@ -998,6 +999,36 @@
     <t xml:space="preserve">C([C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)O)O)O</t>
   </si>
   <si>
+    <t xml:space="preserve">3 Methyl-beta-D-xylopyranoside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO[C@H]1[C@@H]([C@H]([C@@H](CO1)O)O)O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Azido-1-deoxy-beta-D-glucopyranoside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C([C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)N=[N+]=[N-])O)O)O)O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Deoxy-D-glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C[C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)O)O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Amino-1-deoxy-D-fructose hydrochloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C([C@H]([C@H]([C@@H](C(=O)CN)O)O)O)O.Cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Mannoheptulose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C([C@H]([C@H]([C@@H]([C@@H](C(=O)CO)O)O)O)O)O</t>
+  </si>
+  <si>
     <t xml:space="preserve">D-Glucamine</t>
   </si>
   <si>
@@ -1014,36 +1045,6 @@
   </si>
   <si>
     <t xml:space="preserve">C1[C@H]([C@@H]([C@@H](C(O1)O)O)O)O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Methyl-beta-D-xylopyranoside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO[C@H]1[C@@H]([C@H]([C@@H](CO1)O)O)O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Azido-1-deoxy-beta-D-glucopyranoside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C([C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)N=[N+]=[N-])O)O)O)O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-Deoxy-D-glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C[C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)O)O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Amino-1-deoxy-D-fructose hydrochloride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C([C@H]([C@H]([C@@H](C(=O)CN)O)O)O)O.Cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Mannoheptulose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C([C@H]([C@H]([C@@H]([C@@H](C(=O)CO)O)O)O)O)O</t>
   </si>
   <si>
     <t xml:space="preserve">1-Thio-beta-D-glucose sodium salt</t>
@@ -1128,11 +1129,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1154,11 +1156,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1250,7 +1267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1263,15 +1280,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1279,19 +1340,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1300,26 +1353,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1400,13 +1433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C166" activeCellId="0" sqref="C166"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="77.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="140.09"/>
@@ -1969,7 +2002,6 @@
         <v>94</v>
       </c>
       <c r="C47" s="0" t="n">
-        <f aca="false">0</f>
         <v>0</v>
       </c>
     </row>
@@ -2328,7 +2360,6 @@
         <v>154</v>
       </c>
       <c r="C77" s="0" t="n">
-        <f aca="false">0</f>
         <v>0</v>
       </c>
     </row>
@@ -2348,7 +2379,7 @@
       <c r="A79" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C79" s="0" t="n">
@@ -2458,7 +2489,6 @@
         <v>176</v>
       </c>
       <c r="C88" s="0" t="n">
-        <f aca="false">0</f>
         <v>0</v>
       </c>
     </row>
@@ -2937,7 +2967,6 @@
         <v>256</v>
       </c>
       <c r="C128" s="0" t="n">
-        <f aca="false">0</f>
         <v>0</v>
       </c>
     </row>
@@ -3308,7 +3337,6 @@
         <v>318</v>
       </c>
       <c r="C159" s="0" t="n">
-        <f aca="false">0</f>
         <v>0</v>
       </c>
     </row>
@@ -3320,7 +3348,6 @@
         <v>320</v>
       </c>
       <c r="C160" s="0" t="n">
-        <f aca="false">0</f>
         <v>0</v>
       </c>
     </row>
@@ -3337,10 +3364,10 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="11" t="s">
         <v>324</v>
       </c>
       <c r="C162" s="0" t="n">
@@ -3348,14 +3375,15 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="12" t="s">
         <v>326</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>1</v>
+        <f aca="false">0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,42 +3430,6 @@
         <v>334</v>
       </c>
       <c r="C167" s="0" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C168" s="0" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C169" s="0" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C170" s="0" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
@@ -3458,16 +3450,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,12 +3469,139 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3490,15 +3609,15 @@
       <c r="A3" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>346</v>
       </c>
     </row>
@@ -3506,15 +3625,15 @@
       <c r="A5" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3522,7 +3641,7 @@
       <c r="A7" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3530,7 +3649,7 @@
       <c r="A8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3538,7 +3657,7 @@
       <c r="A9" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3546,7 +3665,7 @@
       <c r="A10" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3554,38 +3673,38 @@
       <c r="A11" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>336</v>
+      <c r="B11" s="17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="21" t="s">
         <v>365</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SupplimentaryTables.xlsx
+++ b/SupplimentaryTables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1047,6 +1047,12 @@
     <t xml:space="preserve">C1[C@H]([C@@H]([C@@H](C(O1)O)O)O)O</t>
   </si>
   <si>
+    <t xml:space="preserve">1-Deoxynojirimycin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1[C@@H]([C@H]([C@@H]([C@H](N1)CO)O)O)O</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-Thio-beta-D-glucose sodium salt</t>
   </si>
   <si>
@@ -1057,12 +1063,6 @@
   </si>
   <si>
     <t xml:space="preserve">C([C@@H]1[C@H]([C@@H]([C@H](O1)CO)O)O)O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Deoxynojirimycin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1[C@@H]([C@H]([C@@H]([C@H](N1)CO)O)O)O</t>
   </si>
   <si>
     <t xml:space="preserve">D-allose</t>
@@ -1328,6 +1328,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1337,14 +1345,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1439,7 +1439,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="77.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="140.09"/>
@@ -3450,13 +3450,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.38"/>
@@ -3559,6 +3559,17 @@
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3577,16 +3588,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,106 +3609,98 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>342</v>
+      <c r="A2" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>345</v>
+      <c r="A4" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>348</v>
+      <c r="A5" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>349</v>
+      <c r="A6" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>330</v>
+        <v>360</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>361</v>
+      <c r="A12" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A13" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B13" s="21" t="s">
         <v>365</v>
       </c>
     </row>
